--- a/src/resources/Output.xlsx
+++ b/src/resources/Output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="210">
   <si>
     <t>Year</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>Abdul Visen/Vikas Tallapadi</t>
+  </si>
+  <si>
+    <t>15330.5</t>
   </si>
   <si>
     <t>werwerewrerer</t>
@@ -1275,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI61"/>
+  <dimension ref="A1:AM62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1386,6 +1389,18 @@
       <c r="AI1" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="AJ1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
@@ -5227,9 +5242,23 @@
         <v>58</v>
       </c>
     </row>
+    <row r="62">
+      <c r="AJ62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL62" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM62" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AI61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AM62"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5243,7 +5272,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5272,7 +5301,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
@@ -5283,7 +5312,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C2" s="5">
         <v>5608</v>
@@ -5300,7 +5329,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C3" s="5">
         <v>3060</v>
@@ -5317,7 +5346,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C4" s="5">
         <v>22335.5</v>
@@ -5334,7 +5363,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C5" s="5">
         <v>16963.086</v>
@@ -5351,7 +5380,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C6" s="5">
         <v>20437.586</v>
@@ -5368,7 +5397,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C7" s="5">
         <v>28538.5</v>
@@ -5385,7 +5414,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C8" s="5">
         <v>7532</v>
@@ -5402,7 +5431,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C9" s="5">
         <v>16654.5</v>
